--- a/res/testcase/PakringOperation/CarTypeManage/carTypeManage.xlsx
+++ b/res/testcase/PakringOperation/CarTypeManage/carTypeManage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="10365" tabRatio="1000" firstSheet="4" activeTab="11"/>
+    <workbookView windowWidth="21600" windowHeight="9765" tabRatio="1000" firstSheet="5" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="252">
   <si>
     <t>动作</t>
   </si>
@@ -518,6 +518,9 @@
     <t>4删除后截图</t>
   </si>
   <si>
+    <t>2搜索截图</t>
+  </si>
+  <si>
     <t>点击导出</t>
   </si>
   <si>
@@ -527,7 +530,7 @@
     <t>操作成功，请打开右上角下载中心界面进行下载</t>
   </si>
   <si>
-    <t>2导出截图</t>
+    <t>3导出截图</t>
   </si>
   <si>
     <t>CarTypePage.黑名单录入</t>
@@ -590,7 +593,10 @@
     <t>删除黑名单车辆成功</t>
   </si>
   <si>
-    <t>2删除后截图</t>
+    <t>2搜索后截图</t>
+  </si>
+  <si>
+    <t>3删除后截图</t>
   </si>
   <si>
     <t>CarTypePage.车辆分类</t>
@@ -790,10 +796,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -818,27 +824,6 @@
       <scheme val="major"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -848,7 +833,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -856,6 +841,30 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -870,26 +879,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -901,24 +922,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -940,23 +953,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -977,25 +983,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1013,7 +1001,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1025,7 +1055,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1037,13 +1085,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1055,25 +1103,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1085,31 +1121,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1122,42 +1164,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1199,6 +1205,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1210,6 +1240,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1229,48 +1268,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1282,6 +1279,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1304,10 +1310,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1316,16 +1322,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1334,115 +1340,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2191,10 +2197,10 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D8" sqref="B8:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2250,7 +2256,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E3" s="4"/>
     </row>
@@ -2266,7 +2272,7 @@
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
@@ -2283,7 +2289,7 @@
         <v>144</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
@@ -2291,13 +2297,13 @@
         <v>96</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="E6" s="4"/>
     </row>
@@ -2306,14 +2312,16 @@
         <v>99</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>94</v>
+        <v>178</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" s="4"/>
+        <v>58</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>139</v>
+      </c>
       <c r="E7" s="4" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
@@ -2321,13 +2329,13 @@
         <v>103</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="E8" s="4"/>
     </row>
@@ -2343,7 +2351,7 @@
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
@@ -2351,6 +2359,264 @@
         <v>111</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A11" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A12" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="22" customHeight="1" spans="1:5">
+      <c r="A13" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="22" customHeight="1" spans="1:5">
+      <c r="A14" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C37:C1048576">
+      <formula1>Actions!$A$2:$A$27</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C8 C9 C10 C11 C12 C13 C14 C2:C3">
+      <formula1>Actions!$A$2:$A$40</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6:C7">
+      <formula1>Actions!$A$2:$A$50</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C15:C25">
+      <formula1>Actions!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C26:C36">
+      <formula1>Actions!$A$2:$A$30</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="9" style="4"/>
+    <col min="2" max="2" width="22.25" style="4" customWidth="1"/>
+    <col min="3" max="3" width="18.5" style="4" customWidth="1"/>
+    <col min="4" max="4" width="37.375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.375" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="15" spans="1:5">
+      <c r="A1" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A3" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A4" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A5" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A6" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A7" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A8" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A9" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A10" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>153</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -2375,7 +2641,7 @@
         <v>132</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="22" customHeight="1" spans="1:5">
@@ -2390,7 +2656,7 @@
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
-        <v>160</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -2398,10 +2664,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C35:C1048576">
       <formula1>Actions!$A$2:$A$27</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C6 C7 C8 C9 C10 C11 C12 C2:C3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C7 C8 C9 C10 C11 C12 C2:C3">
       <formula1>Actions!$A$2:$A$40</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C6">
       <formula1>Actions!$A$2:$A$50</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13:C23">
@@ -2416,176 +2682,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
-  <cols>
-    <col min="1" max="1" width="9" style="4"/>
-    <col min="2" max="2" width="22.25" style="4" customWidth="1"/>
-    <col min="3" max="3" width="18.5" style="4" customWidth="1"/>
-    <col min="4" max="4" width="37.375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="33.375" style="4" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15" spans="1:5">
-      <c r="A1" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A2" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A3" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A4" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A5" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A6" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="22" customHeight="1" spans="1:5">
-      <c r="A7" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="22" customHeight="1" spans="1:5">
-      <c r="A8" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C31:C1048576">
-      <formula1>Actions!$A$2:$A$27</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6 C7 C8 C2:C3">
-      <formula1>Actions!$A$2:$A$40</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9:C19">
-      <formula1>Actions!$A$2:$A$35</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C20:C30">
-      <formula1>Actions!$A$2:$A$30</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2641,7 +2744,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E3" s="4"/>
     </row>
@@ -2657,7 +2760,7 @@
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" s="6" customFormat="1" ht="33" customHeight="1" spans="1:5">
@@ -2665,13 +2768,13 @@
         <v>93</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E5" s="4"/>
     </row>
@@ -2680,16 +2783,16 @@
         <v>96</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>71</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" s="6" customFormat="1" ht="33" customHeight="1" spans="1:5">
@@ -2697,16 +2800,16 @@
         <v>99</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>71</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" s="6" customFormat="1" ht="33" customHeight="1" spans="1:5">
@@ -2714,16 +2817,16 @@
         <v>103</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" s="6" customFormat="1" ht="33" customHeight="1" spans="1:5">
@@ -2731,16 +2834,16 @@
         <v>107</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="10" s="6" customFormat="1" ht="33" customHeight="1" spans="1:5">
@@ -2754,7 +2857,7 @@
         <v>2</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E10" s="4"/>
     </row>
@@ -2763,13 +2866,13 @@
         <v>115</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>58</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>140</v>
@@ -2786,7 +2889,7 @@
         <v>2</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E12" s="4"/>
     </row>
@@ -2802,7 +2905,7 @@
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="14" s="6" customFormat="1" ht="33" customHeight="1" spans="1:5">
@@ -2834,7 +2937,7 @@
         <v>132</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="16" s="6" customFormat="1" ht="33" customHeight="1" spans="1:5">
@@ -2849,7 +2952,7 @@
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -2872,7 +2975,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2927,7 +3030,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E3" s="4"/>
     </row>
@@ -2943,7 +3046,7 @@
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -2960,7 +3063,7 @@
         <v>144</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -2990,7 +3093,7 @@
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -2998,13 +3101,13 @@
         <v>103</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E8" s="4"/>
     </row>
@@ -3019,7 +3122,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E9" s="4"/>
     </row>
@@ -3034,10 +3137,10 @@
         <v>36</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -3052,7 +3155,7 @@
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -3060,13 +3163,13 @@
         <v>119</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E12" s="4"/>
     </row>
@@ -3148,7 +3251,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E3" s="4"/>
     </row>
@@ -3164,7 +3267,7 @@
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -3181,7 +3284,7 @@
         <v>144</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -3211,7 +3314,7 @@
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -3240,10 +3343,10 @@
         <v>10</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -3258,7 +3361,7 @@
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -3290,7 +3393,7 @@
         <v>132</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="29" customHeight="1" spans="1:5">
@@ -3386,7 +3489,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E3" s="4"/>
     </row>
@@ -3402,7 +3505,7 @@
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -3410,7 +3513,7 @@
         <v>93</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>10</v>
@@ -3419,7 +3522,7 @@
         <v>144</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -3449,7 +3552,7 @@
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -3479,7 +3582,7 @@
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -3511,7 +3614,7 @@
         <v>132</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="29" customHeight="1" spans="1:5">
@@ -3526,7 +3629,7 @@
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -3552,7 +3655,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
@@ -3607,7 +3710,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E3" s="4"/>
     </row>
@@ -3623,7 +3726,7 @@
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -3631,13 +3734,13 @@
         <v>93</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E5" s="4"/>
     </row>
@@ -3670,7 +3773,7 @@
         <v>132</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="29" customHeight="1" spans="1:5">
@@ -3685,7 +3788,7 @@
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -3781,7 +3884,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E4" s="4"/>
     </row>
@@ -3797,7 +3900,7 @@
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -3805,7 +3908,7 @@
         <v>96</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>2</v>
@@ -3829,7 +3932,7 @@
         <v>105</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -3837,16 +3940,16 @@
         <v>103</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -3861,7 +3964,7 @@
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -3893,7 +3996,7 @@
         <v>132</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="29" customHeight="1" spans="1:5">
@@ -3908,7 +4011,7 @@
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -3989,7 +4092,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E3" s="4"/>
     </row>
@@ -4005,7 +4108,7 @@
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -4013,13 +4116,13 @@
         <v>93</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E5" s="4"/>
     </row>
@@ -4035,7 +4138,7 @@
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -4043,13 +4146,13 @@
         <v>99</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E7" s="4"/>
     </row>
@@ -4065,7 +4168,7 @@
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -4073,13 +4176,13 @@
         <v>107</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E9" s="4"/>
     </row>
@@ -4095,7 +4198,7 @@
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -4176,7 +4279,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E3" s="4"/>
     </row>
@@ -4192,7 +4295,7 @@
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -4200,7 +4303,7 @@
         <v>93</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>10</v>
@@ -4209,7 +4312,7 @@
         <v>144</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -4239,7 +4342,7 @@
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -4247,7 +4350,7 @@
         <v>103</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>2</v>
@@ -4262,16 +4365,16 @@
         <v>107</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -4286,7 +4389,7 @@
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -4294,7 +4397,7 @@
         <v>115</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>2</v>
@@ -4318,7 +4421,7 @@
         <v>132</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="29" customHeight="1" spans="1:5">
@@ -4333,7 +4436,7 @@
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -4359,7 +4462,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -4662,7 +4765,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -4717,7 +4820,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E3" s="4"/>
     </row>
@@ -4733,7 +4836,7 @@
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -4741,7 +4844,7 @@
         <v>93</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>10</v>
@@ -4750,7 +4853,7 @@
         <v>144</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -4780,7 +4883,7 @@
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -4788,7 +4891,7 @@
         <v>103</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>2</v>
@@ -4810,7 +4913,7 @@
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -4818,13 +4921,13 @@
         <v>111</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="E10" s="4"/>
     </row>
@@ -4842,7 +4945,7 @@
         <v>132</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="29" customHeight="1" spans="1:5">
@@ -4857,7 +4960,7 @@
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -4883,7 +4986,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E6" sqref="B5:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
@@ -5041,10 +5144,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E7" sqref="B6:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -5140,13 +5243,13 @@
         <v>96</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="E6" s="4"/>
     </row>
@@ -5155,14 +5258,16 @@
         <v>99</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>94</v>
+        <v>138</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" s="4"/>
+        <v>58</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>139</v>
+      </c>
       <c r="E7" s="4" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" ht="28" customHeight="1" spans="1:5">
@@ -5170,13 +5275,13 @@
         <v>103</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E8" s="4"/>
     </row>
@@ -5185,16 +5290,14 @@
         <v>107</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>150</v>
+        <v>94</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>109</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" ht="28" customHeight="1" spans="1:5">
@@ -5202,60 +5305,92 @@
         <v>111</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>94</v>
+        <v>148</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4" t="s">
-        <v>152</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="E10" s="4"/>
     </row>
     <row r="11" ht="28" customHeight="1" spans="1:5">
       <c r="A11" s="4" t="s">
         <v>115</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="E11" s="4"/>
+        <v>109</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="12" ht="28" customHeight="1" spans="1:5">
       <c r="A12" s="4" t="s">
         <v>119</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>131</v>
+        <v>94</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>132</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="13" ht="29" customHeight="1" spans="1:5">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="13" ht="28" customHeight="1" spans="1:5">
       <c r="A13" s="4" t="s">
         <v>122</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" ht="28" customHeight="1" spans="1:5">
+      <c r="A14" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="15" ht="29" customHeight="1" spans="1:5">
+      <c r="A15" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C15" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4" t="s">
+      <c r="D15" s="4"/>
+      <c r="E15" s="4" t="s">
         <v>155</v>
       </c>
     </row>
@@ -5264,10 +5399,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
       <formula1>Actions!$A$2:$A$27</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C6 C7 C8 C9 C10 C11 C12 C13 C14 C2:C3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C7 C8 C9 C10 C11 C12 C13 C14 C15 C16 C2:C3">
       <formula1>Actions!$A$2:$A$40</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6">
       <formula1>Actions!$A$2:$A$50</formula1>
     </dataValidation>
   </dataValidations>
@@ -5279,10 +5414,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E8" sqref="B6:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -5379,13 +5514,13 @@
         <v>96</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="E6" s="4"/>
     </row>
@@ -5394,14 +5529,16 @@
         <v>99</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>94</v>
+        <v>138</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" s="4"/>
+        <v>58</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>139</v>
+      </c>
       <c r="E7" s="4" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
@@ -5409,13 +5546,13 @@
         <v>103</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="E8" s="4"/>
     </row>
@@ -5431,7 +5568,7 @@
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
@@ -5439,6 +5576,263 @@
         <v>111</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A11" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A12" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="22" customHeight="1" spans="1:5">
+      <c r="A13" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="14" ht="22" customHeight="1" spans="1:5">
+      <c r="A14" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C37:C1048576">
+      <formula1>Actions!$A$2:$A$27</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C7 C8 C9 C10 C11 C12 C13 C14 C2:C3">
+      <formula1>Actions!$A$2:$A$40</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6">
+      <formula1>Actions!$A$2:$A$50</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C15:C25">
+      <formula1>Actions!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C26:C36">
+      <formula1>Actions!$A$2:$A$30</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="9" style="4"/>
+    <col min="2" max="2" width="22.25" style="4" customWidth="1"/>
+    <col min="3" max="3" width="18.5" style="4" customWidth="1"/>
+    <col min="4" max="4" width="37.375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="44.125" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="15" spans="1:5">
+      <c r="A1" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A3" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A4" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A5" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A6" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A7" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A8" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A9" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A10" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>153</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -5463,10 +5857,10 @@
         <v>132</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="12" ht="22" customHeight="1" spans="1:5">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="22" customHeight="1" spans="1:5">
       <c r="A12" s="4" t="s">
         <v>119</v>
       </c>
@@ -5476,8 +5870,9 @@
       <c r="C12" s="4" t="s">
         <v>53</v>
       </c>
+      <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -5503,176 +5898,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
-  <cols>
-    <col min="1" max="1" width="9" style="4"/>
-    <col min="2" max="2" width="22.25" style="4" customWidth="1"/>
-    <col min="3" max="3" width="18.5" style="4" customWidth="1"/>
-    <col min="4" max="4" width="37.375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="44.125" style="4" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15" spans="1:5">
-      <c r="A1" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A2" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A3" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A4" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A5" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A6" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="22" customHeight="1" spans="1:5">
-      <c r="A7" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="22" customHeight="1" spans="1:5">
-      <c r="A8" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4" t="s">
-        <v>164</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C31:C1048576">
-      <formula1>Actions!$A$2:$A$27</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6 C7 C8 C2:C3">
-      <formula1>Actions!$A$2:$A$40</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9:C19">
-      <formula1>Actions!$A$2:$A$35</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C20:C30">
-      <formula1>Actions!$A$2:$A$30</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="B2:E2"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -5743,7 +5975,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E4" s="4"/>
     </row>
@@ -5759,7 +5991,7 @@
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" s="6" customFormat="1" ht="33" customHeight="1" spans="1:5">
@@ -5791,7 +6023,7 @@
         <v>101</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" s="6" customFormat="1" ht="33" customHeight="1" spans="1:5">
@@ -5808,7 +6040,7 @@
         <v>105</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" s="6" customFormat="1" ht="33" customHeight="1" spans="1:5">
@@ -5825,7 +6057,7 @@
         <v>109</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" s="6" customFormat="1" ht="33" customHeight="1" spans="1:5">
@@ -5839,10 +6071,10 @@
         <v>10</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" s="6" customFormat="1" ht="33" customHeight="1" spans="1:5">
@@ -5850,16 +6082,16 @@
         <v>115</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12" s="6" customFormat="1" ht="33" customHeight="1" spans="1:5">
@@ -5874,7 +6106,7 @@
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="13" s="6" customFormat="1" ht="33" customHeight="1" spans="1:5">
@@ -5906,7 +6138,7 @@
         <v>132</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" customFormat="1" ht="33" customHeight="1" spans="1:5">
@@ -5947,7 +6179,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="E7" sqref="B6:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -6018,7 +6250,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E4" s="4"/>
     </row>
@@ -6034,7 +6266,7 @@
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" s="6" customFormat="1" ht="33" customHeight="1" spans="1:5">
@@ -6057,7 +6289,7 @@
         <v>99</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>58</v>
@@ -6081,7 +6313,7 @@
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" s="6" customFormat="1" ht="33" customHeight="1" spans="1:5">
@@ -6096,7 +6328,7 @@
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -6116,10 +6348,10 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E6" sqref="B6:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -6174,7 +6406,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E3" s="4"/>
     </row>
@@ -6190,7 +6422,7 @@
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -6207,7 +6439,7 @@
         <v>144</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -6215,13 +6447,13 @@
         <v>96</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="E6" s="4"/>
     </row>
@@ -6230,14 +6462,16 @@
         <v>99</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>94</v>
+        <v>178</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" s="4"/>
+        <v>58</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>139</v>
+      </c>
       <c r="E7" s="4" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -6245,13 +6479,13 @@
         <v>103</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E8" s="4"/>
     </row>
@@ -6260,14 +6494,12 @@
         <v>107</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>150</v>
+        <v>94</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>109</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
         <v>180</v>
       </c>
@@ -6277,60 +6509,92 @@
         <v>111</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>94</v>
+        <v>148</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4" t="s">
-        <v>181</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="E10" s="4"/>
     </row>
     <row r="11" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A11" s="4" t="s">
         <v>115</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="E11" s="4"/>
+        <v>109</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A12" s="4" t="s">
         <v>119</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>131</v>
+        <v>94</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>132</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" ht="29" customHeight="1" spans="1:5">
+    <row r="13" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A13" s="4" t="s">
         <v>122</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A14" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="29" customHeight="1" spans="1:5">
+      <c r="A15" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C15" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4" t="s">
+      <c r="D15" s="4"/>
+      <c r="E15" s="4" t="s">
         <v>155</v>
       </c>
     </row>
@@ -6339,10 +6603,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
       <formula1>Actions!$A$2:$A$27</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C6 C7 C8 C9 C10 C11 C12 C13 C14 C2:C3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C8 C9 C10 C11 C12 C13 C14 C15 C16 C2:C3">
       <formula1>Actions!$A$2:$A$40</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6:C7">
       <formula1>Actions!$A$2:$A$50</formula1>
     </dataValidation>
   </dataValidations>

--- a/res/testcase/PakringOperation/CarTypeManage/carTypeManage.xlsx
+++ b/res/testcase/PakringOperation/CarTypeManage/carTypeManage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9765" tabRatio="1000" firstSheet="5" activeTab="11"/>
+    <workbookView windowWidth="21600" windowHeight="9765" tabRatio="1000" firstSheet="13" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="254">
   <si>
     <t>动作</t>
   </si>
@@ -458,6 +458,12 @@
     <t>$全局变量.停车场名称;on</t>
   </si>
   <si>
+    <t>点击搜索按钮</t>
+  </si>
+  <si>
+    <t>CarTypePage.搜索按钮</t>
+  </si>
+  <si>
     <t>2访客筛选界面</t>
   </si>
   <si>
@@ -470,12 +476,6 @@
     <t>CarTypePage.搜索框</t>
   </si>
   <si>
-    <t>点击搜索按钮</t>
-  </si>
-  <si>
-    <t>CarTypePage.搜索按钮</t>
-  </si>
-  <si>
     <t>2访客查询界面</t>
   </si>
   <si>
@@ -657,6 +657,12 @@
   </si>
   <si>
     <t>CarTypePage.确认-二级提示</t>
+  </si>
+  <si>
+    <t>点击下一步</t>
+  </si>
+  <si>
+    <t>CarTypePage.下一步</t>
   </si>
   <si>
     <t>2新增特殊类型界面</t>
@@ -824,6 +830,21 @@
       <scheme val="major"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -834,6 +855,44 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -857,9 +916,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -880,6 +939,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -887,67 +953,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -962,7 +968,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -983,6 +989,78 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -990,12 +1068,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1013,55 +1085,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1085,7 +1115,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1097,37 +1127,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1145,25 +1163,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1202,6 +1208,21 @@
         <color auto="1"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1246,6 +1267,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -1268,37 +1300,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1310,10 +1316,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1322,133 +1328,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2280,13 +2286,13 @@
         <v>93</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>169</v>
@@ -2329,13 +2335,13 @@
         <v>103</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E8" s="4"/>
     </row>
@@ -2572,13 +2578,13 @@
         <v>99</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E7" s="4"/>
     </row>
@@ -2685,10 +2691,10 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2898,69 +2904,84 @@
         <v>122</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>94</v>
+        <v>208</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4" t="s">
-        <v>208</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="E13" s="4"/>
     </row>
     <row r="14" s="6" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A14" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>153</v>
+        <v>94</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="E14" s="4"/>
+        <v>53</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="15" s="6" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A15" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>131</v>
+        <v>153</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>69</v>
+        <v>2</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>209</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="E15" s="4"/>
     </row>
     <row r="16" s="6" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A16" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="17" s="6" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A17" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B17" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C17" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4" t="s">
-        <v>210</v>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4" t="s">
+        <v>212</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C17:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C18:C1048576">
       <formula1>Actions!$A$2:$A$27</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6 C7 C8 C12 C13 C14 C15 C16 C2:C3 C9:C11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6 C7 C8 C12 C13 C14 C15 C16 C17 C2:C3 C9:C11">
       <formula1>Actions!$A$2:$A$40</formula1>
     </dataValidation>
   </dataValidations>
@@ -2975,7 +2996,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3054,13 +3075,13 @@
         <v>93</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>168</v>
@@ -3071,13 +3092,13 @@
         <v>96</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E6" s="4"/>
     </row>
@@ -3093,7 +3114,7 @@
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -3101,13 +3122,13 @@
         <v>103</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E8" s="4"/>
     </row>
@@ -3122,7 +3143,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E9" s="4"/>
     </row>
@@ -3137,10 +3158,10 @@
         <v>36</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -3155,7 +3176,7 @@
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -3163,13 +3184,13 @@
         <v>119</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E12" s="4"/>
     </row>
@@ -3275,13 +3296,13 @@
         <v>93</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>200</v>
@@ -3292,13 +3313,13 @@
         <v>96</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E6" s="4"/>
     </row>
@@ -3314,7 +3335,7 @@
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -3346,7 +3367,7 @@
         <v>199</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -3361,7 +3382,7 @@
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -3393,7 +3414,7 @@
         <v>132</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="29" customHeight="1" spans="1:5">
@@ -3513,16 +3534,16 @@
         <v>93</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -3530,13 +3551,13 @@
         <v>96</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E6" s="4"/>
     </row>
@@ -3552,7 +3573,7 @@
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -3582,7 +3603,7 @@
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -3614,7 +3635,7 @@
         <v>132</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="29" customHeight="1" spans="1:5">
@@ -3629,7 +3650,7 @@
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -3655,7 +3676,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
@@ -3710,7 +3731,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E3" s="4"/>
     </row>
@@ -3726,7 +3747,7 @@
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -3788,7 +3809,7 @@
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -3884,7 +3905,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E4" s="4"/>
     </row>
@@ -3900,7 +3921,7 @@
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -3908,7 +3929,7 @@
         <v>96</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>2</v>
@@ -3932,7 +3953,7 @@
         <v>105</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -3940,16 +3961,16 @@
         <v>103</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -3964,7 +3985,7 @@
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -3996,7 +4017,7 @@
         <v>132</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="29" customHeight="1" spans="1:5">
@@ -4011,7 +4032,7 @@
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -4092,7 +4113,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E3" s="4"/>
     </row>
@@ -4108,7 +4129,7 @@
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -4116,13 +4137,13 @@
         <v>93</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E5" s="4"/>
     </row>
@@ -4138,7 +4159,7 @@
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -4146,13 +4167,13 @@
         <v>99</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E7" s="4"/>
     </row>
@@ -4168,7 +4189,7 @@
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -4176,13 +4197,13 @@
         <v>107</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E9" s="4"/>
     </row>
@@ -4198,7 +4219,7 @@
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -4224,7 +4245,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -4279,7 +4300,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E3" s="4"/>
     </row>
@@ -4295,7 +4316,7 @@
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -4303,16 +4324,16 @@
         <v>93</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -4320,13 +4341,13 @@
         <v>96</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E6" s="4"/>
     </row>
@@ -4342,7 +4363,7 @@
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -4350,7 +4371,7 @@
         <v>103</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>2</v>
@@ -4365,16 +4386,16 @@
         <v>107</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -4389,7 +4410,7 @@
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -4397,7 +4418,7 @@
         <v>115</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>2</v>
@@ -4421,7 +4442,7 @@
         <v>132</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="29" customHeight="1" spans="1:5">
@@ -4436,7 +4457,7 @@
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -4764,8 +4785,8 @@
   <sheetPr/>
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -4820,7 +4841,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E3" s="4"/>
     </row>
@@ -4836,7 +4857,7 @@
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -4844,16 +4865,16 @@
         <v>93</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -4861,13 +4882,13 @@
         <v>96</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E6" s="4"/>
     </row>
@@ -4883,7 +4904,7 @@
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -4891,7 +4912,7 @@
         <v>103</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>2</v>
@@ -4913,7 +4934,7 @@
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -4921,13 +4942,13 @@
         <v>111</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E10" s="4"/>
     </row>
@@ -4945,7 +4966,7 @@
         <v>132</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="29" customHeight="1" spans="1:5">
@@ -4960,7 +4981,7 @@
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -4983,13 +5004,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="B5:E6"/>
+      <selection activeCell="B7" sqref="B7:D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="10.625" style="1" customWidth="1"/>
     <col min="2" max="3" width="26" style="1" customWidth="1"/>
@@ -5097,30 +5118,44 @@
         <v>99</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>94</v>
+        <v>141</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4" t="s">
-        <v>141</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E7" s="4"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A8" s="4" t="s">
         <v>103</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A9" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C9" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="E8" s="4" t="s">
+      <c r="D9" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>106</v>
       </c>
     </row>
@@ -5129,7 +5164,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
       <formula1>Actions!$A$2:$A$27</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C6 C7 C8 C9 C2:C3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C6 C7 C8 C9 C10 C2:C3">
       <formula1>Actions!$A$2:$A$40</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5">
@@ -5146,8 +5181,8 @@
   <sheetPr/>
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="B6:E7"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -5226,13 +5261,13 @@
         <v>93</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>106</v>
@@ -5275,13 +5310,13 @@
         <v>103</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E8" s="4"/>
     </row>
@@ -5497,13 +5532,13 @@
         <v>93</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>106</v>
@@ -5546,13 +5581,13 @@
         <v>103</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E8" s="4"/>
     </row>
@@ -5788,13 +5823,13 @@
         <v>99</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E7" s="4"/>
     </row>
@@ -6176,10 +6211,10 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="B6:E7"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -6306,37 +6341,55 @@
         <v>103</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="4" t="s">
-        <v>169</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E8" s="4"/>
     </row>
     <row r="9" s="6" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A9" s="4" t="s">
         <v>107</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="10" s="6" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A10" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C10" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4" t="s">
+      <c r="D10" s="4"/>
+      <c r="E10" s="4" t="s">
         <v>179</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C10:C1048576">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C11:C1048576">
       <formula1>Actions!$A$2:$A$27</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9 C2:C4 C5:C8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8">
+      <formula1>Actions!$A$2:$A$40</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9 C10 C2:C4 C5:C7">
       <formula1>Actions!$A$2:$A$50</formula1>
     </dataValidation>
   </dataValidations>
@@ -6351,7 +6404,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="B6:E7"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -6430,13 +6483,13 @@
         <v>93</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>169</v>
@@ -6479,13 +6532,13 @@
         <v>103</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E8" s="4"/>
     </row>

--- a/res/testcase/PakringOperation/CarTypeManage/carTypeManage.xlsx
+++ b/res/testcase/PakringOperation/CarTypeManage/carTypeManage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9765" tabRatio="1000" firstSheet="13" activeTab="19"/>
+    <workbookView windowWidth="21600" windowHeight="9765" tabRatio="1000" firstSheet="6" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="254">
   <si>
     <t>动作</t>
   </si>
@@ -611,15 +611,6 @@
     <t>CarTypePage.新增特殊类型</t>
   </si>
   <si>
-    <t>选择车场类型</t>
-  </si>
-  <si>
-    <t>CarTypePage.车场类型</t>
-  </si>
-  <si>
-    <t>传统停车场</t>
-  </si>
-  <si>
     <t>选择特殊车辆类型</t>
   </si>
   <si>
@@ -749,6 +740,12 @@
     <t>13800138009</t>
   </si>
   <si>
+    <t>CarTypePage.指定车牌录入-停车场</t>
+  </si>
+  <si>
+    <t>$全局变量.云停车场;on</t>
+  </si>
+  <si>
     <t>2车辆信息界面</t>
   </si>
   <si>
@@ -780,6 +777,9 @@
   </si>
   <si>
     <t>CarTypePage.保存-提示</t>
+  </si>
+  <si>
+    <t>$全局变量.筛选数据停车场名称;off</t>
   </si>
   <si>
     <t>2搜索界面</t>
@@ -802,10 +802,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -832,29 +832,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -898,19 +875,47 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -938,24 +943,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -989,36 +989,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1032,54 +1002,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1134,6 +1056,84 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1211,6 +1211,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1231,6 +1246,26 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1267,41 +1302,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -1316,10 +1316,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1328,133 +1328,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1474,13 +1474,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -2323,7 +2323,7 @@
       <c r="C7" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="5" t="s">
         <v>139</v>
       </c>
       <c r="E7" s="4" t="s">
@@ -2566,7 +2566,7 @@
       <c r="C6" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="5" t="s">
         <v>139</v>
       </c>
       <c r="E6" s="4" t="s">
@@ -2691,10 +2691,10 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2754,7 +2754,7 @@
       </c>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" s="6" customFormat="1" ht="33" customHeight="1" spans="1:5">
+    <row r="4" s="7" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A4" s="4" t="s">
         <v>90</v>
       </c>
@@ -2769,7 +2769,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="5" s="6" customFormat="1" ht="33" customHeight="1" spans="1:5">
+    <row r="5" s="7" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A5" s="4" t="s">
         <v>93</v>
       </c>
@@ -2784,9 +2784,9 @@
       </c>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" s="6" customFormat="1" ht="33" customHeight="1" spans="1:5">
+    <row r="6" s="7" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A6" s="4" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>192</v>
@@ -2801,15 +2801,15 @@
         <v>194</v>
       </c>
     </row>
-    <row r="7" s="6" customFormat="1" ht="33" customHeight="1" spans="1:5">
+    <row r="7" s="7" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A7" s="4" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>195</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>196</v>
@@ -2818,9 +2818,9 @@
         <v>197</v>
       </c>
     </row>
-    <row r="8" s="6" customFormat="1" ht="33" customHeight="1" spans="1:5">
+    <row r="8" s="7" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A8" s="4" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>198</v>
@@ -2835,153 +2835,136 @@
         <v>200</v>
       </c>
     </row>
-    <row r="9" s="6" customFormat="1" ht="33" customHeight="1" spans="1:5">
+    <row r="9" s="7" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A9" s="4" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="4" t="s">
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" s="7" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A10" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="C10" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="10" s="6" customFormat="1" ht="33" customHeight="1" spans="1:5">
-      <c r="A10" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="4" t="s">
+      <c r="E10" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="11" s="7" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A11" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" s="6" customFormat="1" ht="33" customHeight="1" spans="1:5">
-      <c r="A11" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B11" s="4" t="s">
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" s="7" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A12" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" s="4" t="s">
+      <c r="C12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="12" s="6" customFormat="1" ht="33" customHeight="1" spans="1:5">
-      <c r="A12" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>207</v>
-      </c>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" s="6" customFormat="1" ht="33" customHeight="1" spans="1:5">
+    <row r="13" s="7" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A13" s="4" t="s">
         <v>122</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="14" s="7" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A14" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" s="7" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A15" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="4" t="s">
+    </row>
+    <row r="16" s="7" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A16" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4" t="s">
         <v>209</v>
-      </c>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" s="6" customFormat="1" ht="33" customHeight="1" spans="1:5">
-      <c r="A14" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="15" s="6" customFormat="1" ht="33" customHeight="1" spans="1:5">
-      <c r="A15" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" s="6" customFormat="1" ht="33" customHeight="1" spans="1:5">
-      <c r="A16" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="17" s="6" customFormat="1" ht="33" customHeight="1" spans="1:5">
-      <c r="A17" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4" t="s">
-        <v>212</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C18:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C17:C1048576">
       <formula1>Actions!$A$2:$A$27</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6 C7 C8 C12 C13 C14 C15 C16 C17 C2:C3 C9:C11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6 C7 C11 C12 C13 C14 C15 C16 C2:C3 C8:C10">
       <formula1>Actions!$A$2:$A$40</formula1>
     </dataValidation>
   </dataValidations>
@@ -3114,7 +3097,7 @@
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -3122,13 +3105,13 @@
         <v>103</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E8" s="4"/>
     </row>
@@ -3143,7 +3126,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E9" s="4"/>
     </row>
@@ -3158,10 +3141,10 @@
         <v>36</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -3176,7 +3159,7 @@
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -3184,13 +3167,13 @@
         <v>119</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E12" s="4"/>
     </row>
@@ -3305,7 +3288,7 @@
         <v>146</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -3335,7 +3318,7 @@
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -3364,10 +3347,10 @@
         <v>10</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -3382,7 +3365,7 @@
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -3414,7 +3397,7 @@
         <v>132</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="29" customHeight="1" spans="1:5">
@@ -3534,7 +3517,7 @@
         <v>93</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>10</v>
@@ -3543,7 +3526,7 @@
         <v>146</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -3573,7 +3556,7 @@
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -3603,7 +3586,7 @@
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -3635,7 +3618,7 @@
         <v>132</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="29" customHeight="1" spans="1:5">
@@ -3650,7 +3633,7 @@
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -3731,7 +3714,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E3" s="4"/>
     </row>
@@ -3747,7 +3730,7 @@
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -3809,7 +3792,7 @@
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -3832,10 +3815,10 @@
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3865,7 +3848,7 @@
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="23" customHeight="1" spans="1:5">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>85</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -3880,7 +3863,7 @@
       </c>
     </row>
     <row r="3" s="2" customFormat="1" ht="23" customHeight="1" spans="1:5">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>87</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -3895,7 +3878,7 @@
       <c r="E3" s="4"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="6" t="s">
         <v>90</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -3905,12 +3888,12 @@
         <v>2</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E4" s="4"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="6" t="s">
         <v>93</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -3921,15 +3904,15 @@
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>96</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>2</v>
@@ -3940,7 +3923,7 @@
       <c r="E6" s="4"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="6" t="s">
         <v>99</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -3953,75 +3936,75 @@
         <v>105</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="6" t="s">
         <v>103</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A9" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A10" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
-      <c r="A9" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="10" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
-      <c r="A10" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B10" s="4" t="s">
+    </row>
+    <row r="11" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A11" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
-      <c r="A11" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>131</v>
-      </c>
       <c r="C11" s="4" t="s">
-        <v>69</v>
+        <v>2</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="12" s="1" customFormat="1" ht="29" customHeight="1" spans="1:5">
-      <c r="A12" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A12" s="6" t="s">
         <v>119</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -4032,7 +4015,54 @@
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
-        <v>240</v>
+        <v>237</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A13" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A14" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="29" customHeight="1" spans="1:5">
+      <c r="A15" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4" t="s">
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -4040,10 +4070,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C2">
       <formula1>Actions!$A$2:$A$27</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C10 C11 C12 C13 C3:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C13 C14 C15 C16 C3:C4">
       <formula1>Actions!$A$2:$A$40</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6 C7:C9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6 C9 C10 C11 C12 C7:C8">
       <formula1>Actions!$A$2:$A$50</formula1>
     </dataValidation>
   </dataValidations>
@@ -4058,7 +4088,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -4113,7 +4143,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E3" s="4"/>
     </row>
@@ -4129,7 +4159,7 @@
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -4137,13 +4167,13 @@
         <v>93</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>241</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>242</v>
       </c>
       <c r="E5" s="4"/>
     </row>
@@ -4159,7 +4189,7 @@
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -4167,13 +4197,13 @@
         <v>99</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>244</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>245</v>
       </c>
       <c r="E7" s="4"/>
     </row>
@@ -4189,7 +4219,7 @@
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -4197,13 +4227,13 @@
         <v>107</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>247</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>248</v>
       </c>
       <c r="E9" s="4"/>
     </row>
@@ -4219,7 +4249,7 @@
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -4242,10 +4272,10 @@
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="E5" sqref="B5:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -4300,7 +4330,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E3" s="4"/>
     </row>
@@ -4316,7 +4346,7 @@
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -4324,46 +4354,48 @@
         <v>93</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>225</v>
+        <v>2</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>234</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E5" s="4"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A6" s="4" t="s">
         <v>96</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>141</v>
+        <v>58</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="E6" s="4"/>
+        <v>58</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A7" s="4" t="s">
         <v>99</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" s="4"/>
+        <v>58</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>139</v>
+      </c>
       <c r="E7" s="4" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -4371,32 +4403,32 @@
         <v>103</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>241</v>
+        <v>222</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="E8" s="4"/>
+        <v>146</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A9" s="4" t="s">
         <v>107</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>235</v>
+        <v>141</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>250</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="E9" s="4"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A10" s="4" t="s">
@@ -4410,7 +4442,7 @@
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -4418,13 +4450,13 @@
         <v>115</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="E11" s="4"/>
     </row>
@@ -4433,19 +4465,19 @@
         <v>119</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>131</v>
+        <v>232</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>69</v>
+        <v>10</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>132</v>
+        <v>233</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="13" s="1" customFormat="1" ht="29" customHeight="1" spans="1:5">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A13" s="4" t="s">
         <v>122</v>
       </c>
@@ -4457,7 +4489,54 @@
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4" t="s">
-        <v>228</v>
+        <v>251</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A14" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A15" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="29" customHeight="1" spans="1:5">
+      <c r="A16" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4" t="s">
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -4465,10 +4544,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
       <formula1>Actions!$A$2:$A$27</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C11 C12 C13 C14 C2:C3 C5:C7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6 C7 C14 C15 C16 C17 C2:C3 C8:C10">
       <formula1>Actions!$A$2:$A$40</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8 C9 C10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11 C12 C13">
       <formula1>Actions!$A$2:$A$50</formula1>
     </dataValidation>
   </dataValidations>
@@ -4483,7 +4562,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -4555,7 +4634,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="5" s="6" customFormat="1" ht="33" customHeight="1" spans="1:5">
+    <row r="5" s="7" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A5" s="4" t="s">
         <v>93</v>
       </c>
@@ -4570,7 +4649,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="6" s="6" customFormat="1" ht="33" customHeight="1" spans="1:5">
+    <row r="6" s="7" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A6" s="4" t="s">
         <v>96</v>
       </c>
@@ -4585,7 +4664,7 @@
       </c>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" s="6" customFormat="1" ht="33" customHeight="1" spans="1:5">
+    <row r="7" s="7" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A7" s="4" t="s">
         <v>99</v>
       </c>
@@ -4595,14 +4674,14 @@
       <c r="C7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="5" t="s">
         <v>101</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="8" s="6" customFormat="1" ht="33" customHeight="1" spans="1:5">
+    <row r="8" s="7" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A8" s="4" t="s">
         <v>103</v>
       </c>
@@ -4612,14 +4691,14 @@
       <c r="C8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="5" t="s">
         <v>105</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="9" s="6" customFormat="1" ht="33" customHeight="1" spans="1:5">
+    <row r="9" s="7" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A9" s="4" t="s">
         <v>107</v>
       </c>
@@ -4629,14 +4708,14 @@
       <c r="C9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="5" t="s">
         <v>109</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="10" s="6" customFormat="1" ht="33" customHeight="1" spans="1:5">
+    <row r="10" s="7" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A10" s="4" t="s">
         <v>111</v>
       </c>
@@ -4646,14 +4725,14 @@
       <c r="C10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="5" t="s">
         <v>113</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="11" s="6" customFormat="1" ht="33" customHeight="1" spans="1:5">
+    <row r="11" s="7" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A11" s="4" t="s">
         <v>115</v>
       </c>
@@ -4663,14 +4742,14 @@
       <c r="C11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="5" t="s">
         <v>117</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="12" s="6" customFormat="1" ht="33" customHeight="1" spans="1:5">
+    <row r="12" s="7" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A12" s="4" t="s">
         <v>119</v>
       </c>
@@ -4685,7 +4764,7 @@
       </c>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" s="6" customFormat="1" ht="33" customHeight="1" spans="1:5">
+    <row r="13" s="7" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A13" s="4" t="s">
         <v>122</v>
       </c>
@@ -4700,7 +4779,7 @@
       </c>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" s="6" customFormat="1" ht="33" customHeight="1" spans="1:5">
+    <row r="14" s="7" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A14" s="4" t="s">
         <v>125</v>
       </c>
@@ -4715,7 +4794,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="15" s="6" customFormat="1" ht="33" customHeight="1" spans="1:5">
+    <row r="15" s="7" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A15" s="4" t="s">
         <v>127</v>
       </c>
@@ -4730,7 +4809,7 @@
       </c>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" s="6" customFormat="1" ht="33" customHeight="1" spans="1:5">
+    <row r="16" s="7" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A16" s="4" t="s">
         <v>130</v>
       </c>
@@ -4783,10 +4862,10 @@
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -4841,7 +4920,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E3" s="4"/>
     </row>
@@ -4857,7 +4936,7 @@
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -4865,46 +4944,48 @@
         <v>93</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>225</v>
+        <v>2</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>234</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E5" s="4"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A6" s="4" t="s">
         <v>96</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>141</v>
+        <v>58</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="E6" s="4"/>
+        <v>58</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A7" s="4" t="s">
         <v>99</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" s="4"/>
+        <v>58</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>139</v>
+      </c>
       <c r="E7" s="4" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -4912,64 +4993,64 @@
         <v>103</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>241</v>
+        <v>222</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="E8" s="4"/>
+        <v>146</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A9" s="4" t="s">
         <v>107</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>94</v>
+        <v>141</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4" t="s">
-        <v>252</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E9" s="4"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A10" s="4" t="s">
         <v>111</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>247</v>
+        <v>94</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="E10" s="4"/>
+        <v>53</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A11" s="4" t="s">
         <v>115</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>131</v>
+        <v>240</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>69</v>
+        <v>2</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="12" s="1" customFormat="1" ht="29" customHeight="1" spans="1:5">
+        <v>157</v>
+      </c>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A12" s="4" t="s">
         <v>119</v>
       </c>
@@ -4981,7 +5062,54 @@
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
-        <v>228</v>
+        <v>252</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A13" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A14" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="29" customHeight="1" spans="1:5">
+      <c r="A15" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4" t="s">
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -4989,10 +5117,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
       <formula1>Actions!$A$2:$A$27</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C10 C11 C12 C13 C2:C3 C5:C7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6 C7 C13 C14 C15 C16 C2:C3 C8:C10">
       <formula1>Actions!$A$2:$A$40</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8 C9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11 C12">
       <formula1>Actions!$A$2:$A$50</formula1>
     </dataValidation>
   </dataValidations>
@@ -5007,7 +5135,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:D7"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -6014,7 +6142,7 @@
       </c>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" s="6" customFormat="1" ht="33" customHeight="1" spans="1:5">
+    <row r="5" s="7" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A5" s="4" t="s">
         <v>93</v>
       </c>
@@ -6029,7 +6157,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="6" s="6" customFormat="1" ht="33" customHeight="1" spans="1:5">
+    <row r="6" s="7" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A6" s="4" t="s">
         <v>96</v>
       </c>
@@ -6044,7 +6172,7 @@
       </c>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" s="6" customFormat="1" ht="33" customHeight="1" spans="1:5">
+    <row r="7" s="7" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A7" s="4" t="s">
         <v>99</v>
       </c>
@@ -6054,14 +6182,14 @@
       <c r="C7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="5" t="s">
         <v>101</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="8" s="6" customFormat="1" ht="33" customHeight="1" spans="1:5">
+    <row r="8" s="7" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A8" s="4" t="s">
         <v>103</v>
       </c>
@@ -6071,14 +6199,14 @@
       <c r="C8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="5" t="s">
         <v>105</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="9" s="6" customFormat="1" ht="33" customHeight="1" spans="1:5">
+    <row r="9" s="7" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A9" s="4" t="s">
         <v>107</v>
       </c>
@@ -6088,14 +6216,14 @@
       <c r="C9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="5" t="s">
         <v>109</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="10" s="6" customFormat="1" ht="33" customHeight="1" spans="1:5">
+    <row r="10" s="7" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A10" s="4" t="s">
         <v>111</v>
       </c>
@@ -6105,14 +6233,14 @@
       <c r="C10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="5" t="s">
         <v>171</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="11" s="6" customFormat="1" ht="33" customHeight="1" spans="1:5">
+    <row r="11" s="7" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A11" s="4" t="s">
         <v>115</v>
       </c>
@@ -6129,7 +6257,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="12" s="6" customFormat="1" ht="33" customHeight="1" spans="1:5">
+    <row r="12" s="7" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A12" s="4" t="s">
         <v>119</v>
       </c>
@@ -6144,7 +6272,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="13" s="6" customFormat="1" ht="33" customHeight="1" spans="1:5">
+    <row r="13" s="7" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A13" s="4" t="s">
         <v>122</v>
       </c>
@@ -6159,7 +6287,7 @@
       </c>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" s="6" customFormat="1" ht="33" customHeight="1" spans="1:5">
+    <row r="14" s="7" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A14" s="4" t="s">
         <v>125</v>
       </c>
@@ -6289,7 +6417,7 @@
       </c>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" s="6" customFormat="1" ht="33" customHeight="1" spans="1:5">
+    <row r="5" s="7" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A5" s="4" t="s">
         <v>93</v>
       </c>
@@ -6304,7 +6432,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="6" s="6" customFormat="1" ht="33" customHeight="1" spans="1:5">
+    <row r="6" s="7" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A6" s="4" t="s">
         <v>96</v>
       </c>
@@ -6319,7 +6447,7 @@
       </c>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" s="6" customFormat="1" ht="33" customHeight="1" spans="1:5">
+    <row r="7" s="7" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A7" s="4" t="s">
         <v>99</v>
       </c>
@@ -6329,14 +6457,14 @@
       <c r="C7" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="5" t="s">
         <v>139</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="8" s="6" customFormat="1" ht="33" customHeight="1" spans="1:5">
+    <row r="8" s="7" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A8" s="4" t="s">
         <v>103</v>
       </c>
@@ -6351,7 +6479,7 @@
       </c>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" s="6" customFormat="1" ht="33" customHeight="1" spans="1:5">
+    <row r="9" s="7" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A9" s="4" t="s">
         <v>107</v>
       </c>
@@ -6361,12 +6489,12 @@
       <c r="C9" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D9" s="7"/>
+      <c r="D9" s="5"/>
       <c r="E9" s="4" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="10" s="6" customFormat="1" ht="33" customHeight="1" spans="1:5">
+    <row r="10" s="7" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A10" s="4" t="s">
         <v>111</v>
       </c>
@@ -6520,7 +6648,7 @@
       <c r="C7" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="5" t="s">
         <v>139</v>
       </c>
       <c r="E7" s="4" t="s">

--- a/res/testcase/PakringOperation/CarTypeManage/carTypeManage.xlsx
+++ b/res/testcase/PakringOperation/CarTypeManage/carTypeManage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9765" tabRatio="1000" firstSheet="6" activeTab="11"/>
+    <workbookView windowWidth="21600" windowHeight="9765" tabRatio="1000" firstSheet="6" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="1" r:id="rId1"/>
@@ -802,10 +802,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -832,6 +832,29 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -875,47 +898,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -943,19 +938,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -989,6 +989,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1002,6 +1032,54 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1056,84 +1134,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1211,21 +1211,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1246,26 +1231,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1302,6 +1267,41 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -1316,10 +1316,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1328,133 +1328,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2693,7 +2693,7 @@
   <sheetPr/>
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -2978,8 +2978,8 @@
   <sheetPr/>
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>

--- a/res/testcase/PakringOperation/CarTypeManage/carTypeManage.xlsx
+++ b/res/testcase/PakringOperation/CarTypeManage/carTypeManage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9765" tabRatio="1000" firstSheet="6" activeTab="11"/>
+    <workbookView windowWidth="21600" windowHeight="9840" tabRatio="1000" firstSheet="13" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="1" r:id="rId1"/>
@@ -341,7 +341,7 @@
     <t>CarTypePage.特殊车辆类型名称</t>
   </si>
   <si>
-    <t>UI自动化访客专用</t>
+    <t>ui自动化访客实用</t>
   </si>
   <si>
     <t>7</t>
@@ -539,7 +539,7 @@
     <t>1黑名单车辆界面</t>
   </si>
   <si>
-    <t>UI自动化黑名单固用</t>
+    <t>ui自动化黑名单实用</t>
   </si>
   <si>
     <t>${006_addBlacklistCar}.车牌号</t>
@@ -626,7 +626,7 @@
     <t>CarTypePage.类型名称</t>
   </si>
   <si>
-    <t>UI特殊类型</t>
+    <t>UI特殊类型实用</t>
   </si>
   <si>
     <t>输入简介</t>
@@ -692,7 +692,7 @@
     <t>CarTypePage.关闭-提示</t>
   </si>
   <si>
-    <t>UI特殊类型修改后</t>
+    <t>UI特殊类型实用修改后</t>
   </si>
   <si>
     <t>3特殊车辆类型修改界面</t>
@@ -802,10 +802,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -2693,8 +2693,8 @@
   <sheetPr/>
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2979,7 +2979,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3200,7 +3200,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3438,7 +3438,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:E6"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3659,7 +3659,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
@@ -3817,8 +3817,8 @@
   <sheetPr/>
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -4562,7 +4562,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -5580,7 +5580,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="B6:E8"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -6067,7 +6067,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>

--- a/res/testcase/PakringOperation/CarTypeManage/carTypeManage.xlsx
+++ b/res/testcase/PakringOperation/CarTypeManage/carTypeManage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9765" tabRatio="1000" firstSheet="6" activeTab="12"/>
+    <workbookView windowWidth="21600" windowHeight="9840" tabRatio="1000" firstSheet="13" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="255">
   <si>
     <t>动作</t>
   </si>
@@ -539,7 +539,7 @@
     <t>1黑名单车辆界面</t>
   </si>
   <si>
-    <t>UI自动化黑名单固用</t>
+    <t>ui自动化黑名单实用</t>
   </si>
   <si>
     <t>${006_addBlacklistCar}.车牌号</t>
@@ -626,7 +626,7 @@
     <t>CarTypePage.类型名称</t>
   </si>
   <si>
-    <t>UI特殊类型</t>
+    <t>UI特殊类型实用</t>
   </si>
   <si>
     <t>输入简介</t>
@@ -665,6 +665,9 @@
     <t>3创建成功</t>
   </si>
   <si>
+    <t>UI自动化黑名单实用</t>
+  </si>
+  <si>
     <t>2特殊车辆类型查询界面</t>
   </si>
   <si>
@@ -692,7 +695,7 @@
     <t>CarTypePage.关闭-提示</t>
   </si>
   <si>
-    <t>UI特殊类型修改后</t>
+    <t>UI特殊类型实用修改后</t>
   </si>
   <si>
     <t>3特殊车辆类型修改界面</t>
@@ -953,13 +956,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -969,6 +965,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -984,18 +987,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1019,31 +1010,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1073,19 +1040,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1097,19 +1052,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1121,7 +1064,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1139,19 +1088,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1169,7 +1124,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1316,10 +1319,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1328,16 +1331,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1349,10 +1352,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1373,85 +1376,85 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2694,7 +2697,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2978,8 +2981,8 @@
   <sheetPr/>
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3067,7 +3070,7 @@
         <v>146</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>168</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -3097,7 +3100,7 @@
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -3105,13 +3108,13 @@
         <v>103</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E8" s="4"/>
     </row>
@@ -3126,7 +3129,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E9" s="4"/>
     </row>
@@ -3141,10 +3144,10 @@
         <v>36</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -3159,7 +3162,7 @@
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -3167,13 +3170,13 @@
         <v>119</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E12" s="4"/>
     </row>
@@ -3200,7 +3203,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3318,7 +3321,7 @@
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -3350,7 +3353,7 @@
         <v>196</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -3365,7 +3368,7 @@
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -3397,7 +3400,7 @@
         <v>132</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="29" customHeight="1" spans="1:5">
@@ -3438,7 +3441,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:E6"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3517,7 +3520,7 @@
         <v>93</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>10</v>
@@ -3526,7 +3529,7 @@
         <v>146</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -3556,7 +3559,7 @@
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -3586,7 +3589,7 @@
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -3618,7 +3621,7 @@
         <v>132</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="29" customHeight="1" spans="1:5">
@@ -3633,7 +3636,7 @@
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -3714,7 +3717,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E3" s="4"/>
     </row>
@@ -3730,7 +3733,7 @@
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -3792,7 +3795,7 @@
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -3817,8 +3820,8 @@
   <sheetPr/>
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3888,7 +3891,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E4" s="4"/>
     </row>
@@ -3904,7 +3907,7 @@
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -3912,7 +3915,7 @@
         <v>96</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>2</v>
@@ -3936,7 +3939,7 @@
         <v>105</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -3944,16 +3947,16 @@
         <v>103</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -3967,7 +3970,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E9" s="4"/>
     </row>
@@ -3985,7 +3988,7 @@
         <v>203</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -4015,7 +4018,7 @@
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -4047,7 +4050,7 @@
         <v>132</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" ht="29" customHeight="1" spans="1:5">
@@ -4062,7 +4065,7 @@
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -4143,7 +4146,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E3" s="4"/>
     </row>
@@ -4159,7 +4162,7 @@
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -4167,13 +4170,13 @@
         <v>93</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E5" s="4"/>
     </row>
@@ -4189,7 +4192,7 @@
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -4197,13 +4200,13 @@
         <v>99</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E7" s="4"/>
     </row>
@@ -4219,7 +4222,7 @@
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -4227,13 +4230,13 @@
         <v>107</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E9" s="4"/>
     </row>
@@ -4249,7 +4252,7 @@
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -4275,7 +4278,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="B5:E7"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -4330,7 +4333,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E3" s="4"/>
     </row>
@@ -4346,7 +4349,7 @@
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -4378,7 +4381,7 @@
         <v>139</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -4395,7 +4398,7 @@
         <v>139</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -4403,7 +4406,7 @@
         <v>103</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>10</v>
@@ -4412,7 +4415,7 @@
         <v>146</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -4442,7 +4445,7 @@
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -4450,7 +4453,7 @@
         <v>115</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>2</v>
@@ -4465,16 +4468,16 @@
         <v>119</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -4489,7 +4492,7 @@
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -4497,7 +4500,7 @@
         <v>125</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>2</v>
@@ -4521,7 +4524,7 @@
         <v>132</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" ht="29" customHeight="1" spans="1:5">
@@ -4536,7 +4539,7 @@
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -4865,7 +4868,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -4920,7 +4923,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E3" s="4"/>
     </row>
@@ -4936,7 +4939,7 @@
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -4968,7 +4971,7 @@
         <v>139</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -4985,7 +4988,7 @@
         <v>139</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -4993,7 +4996,7 @@
         <v>103</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>10</v>
@@ -5002,7 +5005,7 @@
         <v>146</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -5032,7 +5035,7 @@
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -5040,7 +5043,7 @@
         <v>115</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>2</v>
@@ -5062,7 +5065,7 @@
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -5070,13 +5073,13 @@
         <v>122</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E13" s="4"/>
     </row>
@@ -5094,7 +5097,7 @@
         <v>132</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" ht="29" customHeight="1" spans="1:5">
@@ -5109,7 +5112,7 @@
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -6066,8 +6069,8 @@
   <sheetPr/>
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>

--- a/res/testcase/PakringOperation/CarTypeManage/carTypeManage.xlsx
+++ b/res/testcase/PakringOperation/CarTypeManage/carTypeManage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9840" tabRatio="1000" firstSheet="13" activeTab="16"/>
+    <workbookView windowWidth="20925" windowHeight="9840" tabRatio="1000" firstSheet="14" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="1" r:id="rId1"/>
@@ -842,7 +842,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -863,30 +863,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -901,9 +877,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -917,11 +892,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -942,21 +931,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -964,14 +955,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -987,6 +987,162 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1010,169 +1166,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1214,17 +1214,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1234,21 +1234,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1270,11 +1255,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1289,25 +1272,42 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1319,10 +1319,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1331,133 +1331,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3821,7 +3821,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -6070,7 +6070,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>

--- a/res/testcase/PakringOperation/CarTypeManage/carTypeManage.xlsx
+++ b/res/testcase/PakringOperation/CarTypeManage/carTypeManage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20925" windowHeight="9840" tabRatio="1000" firstSheet="14" activeTab="16"/>
+    <workbookView windowWidth="20925" windowHeight="9840" tabRatio="1000" firstSheet="9" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="254">
   <si>
     <t>动作</t>
   </si>
@@ -455,198 +455,201 @@
     <t>CarTypePage.停车场列表</t>
   </si>
   <si>
+    <t>$全局变量.云停车场;on</t>
+  </si>
+  <si>
+    <t>点击搜索按钮</t>
+  </si>
+  <si>
+    <t>CarTypePage.搜索按钮</t>
+  </si>
+  <si>
+    <t>2访客筛选界面</t>
+  </si>
+  <si>
+    <t>CarTypePage.访客车辆记录列表</t>
+  </si>
+  <si>
+    <t>输入搜索车牌号</t>
+  </si>
+  <si>
+    <t>CarTypePage.搜索框</t>
+  </si>
+  <si>
+    <t>2访客查询界面</t>
+  </si>
+  <si>
+    <t>点击编辑</t>
+  </si>
+  <si>
+    <t>CarTypePage.编辑</t>
+  </si>
+  <si>
+    <t>输入修改后的车主名</t>
+  </si>
+  <si>
+    <t>UI访客修改后</t>
+  </si>
+  <si>
+    <t>3访客修改界面</t>
+  </si>
+  <si>
+    <t>点击确认</t>
+  </si>
+  <si>
+    <t>访客车辆修改成功</t>
+  </si>
+  <si>
+    <t>4保存后截图</t>
+  </si>
+  <si>
+    <t>点击删除</t>
+  </si>
+  <si>
+    <t>CarTypePage.删除</t>
+  </si>
+  <si>
+    <t>3访客删除提示界面</t>
+  </si>
+  <si>
+    <t>删除访客车辆成功</t>
+  </si>
+  <si>
+    <t>4删除后截图</t>
+  </si>
+  <si>
+    <t>2搜索截图</t>
+  </si>
+  <si>
+    <t>点击导出</t>
+  </si>
+  <si>
+    <t>CarTypePage.导出</t>
+  </si>
+  <si>
+    <t>操作成功，请打开右上角下载中心界面进行下载</t>
+  </si>
+  <si>
+    <t>3导出截图</t>
+  </si>
+  <si>
+    <t>CarTypePage.黑名单录入</t>
+  </si>
+  <si>
+    <t>1黑名单车辆界面</t>
+  </si>
+  <si>
+    <t>ui自动化黑名单实用</t>
+  </si>
+  <si>
+    <t>${006_addBlacklistCar}.车牌号</t>
+  </si>
+  <si>
+    <t>UI黑名单</t>
+  </si>
+  <si>
+    <t>CarTypePage.黑名单原因</t>
+  </si>
+  <si>
+    <t>UI黑名单测试</t>
+  </si>
+  <si>
+    <t>选择黑名单生效期</t>
+  </si>
+  <si>
+    <t>CarTypePage.黑名单生效期</t>
+  </si>
+  <si>
+    <t>永久</t>
+  </si>
+  <si>
+    <t>2黑名单新增界面</t>
+  </si>
+  <si>
+    <t>黑名单车辆创建成功</t>
+  </si>
+  <si>
+    <t>选择停车</t>
+  </si>
+  <si>
+    <t>2保存后截图</t>
+  </si>
+  <si>
+    <t>2黑名单查询界面</t>
+  </si>
+  <si>
+    <t>UI黑名单修改后</t>
+  </si>
+  <si>
+    <t>3黑名单修改界面</t>
+  </si>
+  <si>
+    <t>黑名单车辆修改成功</t>
+  </si>
+  <si>
+    <t>3黑名单删除提示界面</t>
+  </si>
+  <si>
+    <t>删除黑名单车辆成功</t>
+  </si>
+  <si>
+    <t>2搜索后截图</t>
+  </si>
+  <si>
+    <t>3删除后截图</t>
+  </si>
+  <si>
+    <t>CarTypePage.车辆分类</t>
+  </si>
+  <si>
+    <t>1特殊车辆类型界面</t>
+  </si>
+  <si>
+    <t>点击新增特殊类型</t>
+  </si>
+  <si>
+    <t>CarTypePage.新增特殊类型</t>
+  </si>
+  <si>
+    <t>选择特殊车辆类型</t>
+  </si>
+  <si>
+    <t>CarTypePage.特殊车辆类型选择</t>
+  </si>
+  <si>
+    <t>访客</t>
+  </si>
+  <si>
+    <t>输入类型名称</t>
+  </si>
+  <si>
+    <t>CarTypePage.类型名称</t>
+  </si>
+  <si>
+    <t>UI特殊类型实用</t>
+  </si>
+  <si>
+    <t>输入简介</t>
+  </si>
+  <si>
+    <t>CarTypePage.简介</t>
+  </si>
+  <si>
+    <t>UI特殊类型测试</t>
+  </si>
+  <si>
+    <t>CarTypePage.选择停车场</t>
+  </si>
+  <si>
+    <t>勾选停车场通道</t>
+  </si>
+  <si>
+    <t>CarTypePage.停车场通道</t>
+  </si>
+  <si>
     <t>$全局变量.停车场名称;on</t>
   </si>
   <si>
-    <t>点击搜索按钮</t>
-  </si>
-  <si>
-    <t>CarTypePage.搜索按钮</t>
-  </si>
-  <si>
-    <t>2访客筛选界面</t>
-  </si>
-  <si>
-    <t>CarTypePage.访客车辆记录列表</t>
-  </si>
-  <si>
-    <t>输入搜索车牌号</t>
-  </si>
-  <si>
-    <t>CarTypePage.搜索框</t>
-  </si>
-  <si>
-    <t>2访客查询界面</t>
-  </si>
-  <si>
-    <t>点击编辑</t>
-  </si>
-  <si>
-    <t>CarTypePage.编辑</t>
-  </si>
-  <si>
-    <t>输入修改后的车主名</t>
-  </si>
-  <si>
-    <t>UI访客修改后</t>
-  </si>
-  <si>
-    <t>3访客修改界面</t>
-  </si>
-  <si>
-    <t>点击确认</t>
-  </si>
-  <si>
-    <t>访客车辆修改成功</t>
-  </si>
-  <si>
-    <t>4保存后截图</t>
-  </si>
-  <si>
-    <t>点击删除</t>
-  </si>
-  <si>
-    <t>CarTypePage.删除</t>
-  </si>
-  <si>
-    <t>3访客删除提示界面</t>
-  </si>
-  <si>
-    <t>删除访客车辆成功</t>
-  </si>
-  <si>
-    <t>4删除后截图</t>
-  </si>
-  <si>
-    <t>2搜索截图</t>
-  </si>
-  <si>
-    <t>点击导出</t>
-  </si>
-  <si>
-    <t>CarTypePage.导出</t>
-  </si>
-  <si>
-    <t>操作成功，请打开右上角下载中心界面进行下载</t>
-  </si>
-  <si>
-    <t>3导出截图</t>
-  </si>
-  <si>
-    <t>CarTypePage.黑名单录入</t>
-  </si>
-  <si>
-    <t>1黑名单车辆界面</t>
-  </si>
-  <si>
-    <t>ui自动化黑名单实用</t>
-  </si>
-  <si>
-    <t>${006_addBlacklistCar}.车牌号</t>
-  </si>
-  <si>
-    <t>UI黑名单</t>
-  </si>
-  <si>
-    <t>CarTypePage.黑名单原因</t>
-  </si>
-  <si>
-    <t>UI黑名单测试</t>
-  </si>
-  <si>
-    <t>选择黑名单生效期</t>
-  </si>
-  <si>
-    <t>CarTypePage.黑名单生效期</t>
-  </si>
-  <si>
-    <t>永久</t>
-  </si>
-  <si>
-    <t>2黑名单新增界面</t>
-  </si>
-  <si>
-    <t>黑名单车辆创建成功</t>
-  </si>
-  <si>
-    <t>选择停车</t>
-  </si>
-  <si>
-    <t>2保存后截图</t>
-  </si>
-  <si>
-    <t>2黑名单查询界面</t>
-  </si>
-  <si>
-    <t>UI黑名单修改后</t>
-  </si>
-  <si>
-    <t>3黑名单修改界面</t>
-  </si>
-  <si>
-    <t>黑名单车辆修改成功</t>
-  </si>
-  <si>
-    <t>3黑名单删除提示界面</t>
-  </si>
-  <si>
-    <t>删除黑名单车辆成功</t>
-  </si>
-  <si>
-    <t>2搜索后截图</t>
-  </si>
-  <si>
-    <t>3删除后截图</t>
-  </si>
-  <si>
-    <t>CarTypePage.车辆分类</t>
-  </si>
-  <si>
-    <t>1特殊车辆类型界面</t>
-  </si>
-  <si>
-    <t>点击新增特殊类型</t>
-  </si>
-  <si>
-    <t>CarTypePage.新增特殊类型</t>
-  </si>
-  <si>
-    <t>选择特殊车辆类型</t>
-  </si>
-  <si>
-    <t>CarTypePage.特殊车辆类型选择</t>
-  </si>
-  <si>
-    <t>访客</t>
-  </si>
-  <si>
-    <t>输入类型名称</t>
-  </si>
-  <si>
-    <t>CarTypePage.类型名称</t>
-  </si>
-  <si>
-    <t>UI特殊类型实用</t>
-  </si>
-  <si>
-    <t>输入简介</t>
-  </si>
-  <si>
-    <t>CarTypePage.简介</t>
-  </si>
-  <si>
-    <t>UI特殊类型测试</t>
-  </si>
-  <si>
-    <t>CarTypePage.选择停车场</t>
-  </si>
-  <si>
-    <t>勾选停车场通道</t>
-  </si>
-  <si>
-    <t>CarTypePage.停车场通道</t>
-  </si>
-  <si>
     <t>CarTypePage.确认-二级提示</t>
   </si>
   <si>
@@ -665,9 +668,6 @@
     <t>3创建成功</t>
   </si>
   <si>
-    <t>UI自动化黑名单实用</t>
-  </si>
-  <si>
     <t>2特殊车辆类型查询界面</t>
   </si>
   <si>
@@ -744,9 +744,6 @@
   </si>
   <si>
     <t>CarTypePage.指定车牌录入-停车场</t>
-  </si>
-  <si>
-    <t>$全局变量.云停车场;on</t>
   </si>
   <si>
     <t>2车辆信息界面</t>
@@ -805,10 +802,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -833,16 +830,9 @@
       <scheme val="major"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -863,15 +853,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -900,17 +899,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -922,6 +913,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -930,16 +951,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -953,25 +967,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -992,7 +989,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1004,19 +1127,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1028,85 +1151,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1118,61 +1163,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1214,17 +1211,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1239,25 +1232,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1303,11 +1287,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1319,10 +1316,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1331,31 +1328,37 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1364,100 +1367,94 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2209,7 +2206,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="B8:D8"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2469,7 +2466,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2696,7 +2693,7 @@
   <sheetPr/>
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -2867,7 +2864,7 @@
         <v>203</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>140</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" s="7" customFormat="1" ht="33" customHeight="1" spans="1:5">
@@ -2881,7 +2878,7 @@
         <v>2</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E11" s="4"/>
     </row>
@@ -2890,13 +2887,13 @@
         <v>122</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E12" s="4"/>
     </row>
@@ -2912,7 +2909,7 @@
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="14" s="7" customFormat="1" ht="33" customHeight="1" spans="1:5">
@@ -2944,7 +2941,7 @@
         <v>132</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="16" s="7" customFormat="1" ht="33" customHeight="1" spans="1:5">
@@ -2959,7 +2956,7 @@
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -2981,8 +2978,8 @@
   <sheetPr/>
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3070,7 +3067,7 @@
         <v>146</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -3820,7 +3817,7 @@
   <sheetPr/>
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -3988,7 +3985,7 @@
         <v>203</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>237</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -4002,7 +3999,7 @@
         <v>2</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E11" s="4"/>
     </row>
@@ -4018,7 +4015,7 @@
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -4050,7 +4047,7 @@
         <v>132</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" ht="29" customHeight="1" spans="1:5">
@@ -4065,7 +4062,7 @@
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -4170,13 +4167,13 @@
         <v>93</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>241</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>242</v>
       </c>
       <c r="E5" s="4"/>
     </row>
@@ -4192,7 +4189,7 @@
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -4200,13 +4197,13 @@
         <v>99</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>244</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>245</v>
       </c>
       <c r="E7" s="4"/>
     </row>
@@ -4222,7 +4219,7 @@
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -4230,13 +4227,13 @@
         <v>107</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>247</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>248</v>
       </c>
       <c r="E9" s="4"/>
     </row>
@@ -4381,7 +4378,7 @@
         <v>139</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -4398,7 +4395,7 @@
         <v>139</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>237</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -4445,7 +4442,7 @@
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -4453,7 +4450,7 @@
         <v>115</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>2</v>
@@ -4477,7 +4474,7 @@
         <v>234</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -4492,7 +4489,7 @@
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -4500,7 +4497,7 @@
         <v>125</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>2</v>
@@ -4524,7 +4521,7 @@
         <v>132</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" ht="29" customHeight="1" spans="1:5">
@@ -4564,8 +4561,8 @@
   <sheetPr/>
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -4971,7 +4968,7 @@
         <v>139</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -4988,7 +4985,7 @@
         <v>139</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>237</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -5035,7 +5032,7 @@
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -5043,7 +5040,7 @@
         <v>115</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>2</v>
@@ -5065,7 +5062,7 @@
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -5073,13 +5070,13 @@
         <v>122</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E13" s="4"/>
     </row>
@@ -5138,7 +5135,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -5312,8 +5309,8 @@
   <sheetPr/>
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -5583,7 +5580,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="B6:E8"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -5842,7 +5839,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -6070,7 +6067,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -6345,7 +6342,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -6535,7 +6532,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>

--- a/res/testcase/PakringOperation/CarTypeManage/carTypeManage.xlsx
+++ b/res/testcase/PakringOperation/CarTypeManage/carTypeManage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20925" windowHeight="9840" tabRatio="1000" firstSheet="9" activeTab="12"/>
+    <workbookView windowWidth="20925" windowHeight="9840" tabRatio="1000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="1" r:id="rId1"/>
@@ -830,19 +830,10 @@
       <scheme val="major"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -853,9 +844,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -883,18 +905,34 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -906,30 +944,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -943,25 +959,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -989,6 +989,60 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1007,43 +1061,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1055,19 +1079,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1085,6 +1103,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1097,37 +1127,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1213,17 +1213,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
@@ -1242,6 +1231,32 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1293,21 +1308,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1316,10 +1316,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1328,133 +1328,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2978,8 +2978,8 @@
   <sheetPr/>
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -4561,8 +4561,8 @@
   <sheetPr/>
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
